--- a/Definitions/Property.xlsx
+++ b/Definitions/Property.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13788"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property!$B$1:$B$615</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property!$B$1:$B$623</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
     <author>Steve Richard</author>
   </authors>
   <commentList>
-    <comment ref="B615" authorId="0" shapeId="0">
+    <comment ref="B623" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="443">
   <si>
     <t>def/property/location-name</t>
   </si>
@@ -504,9 +504,6 @@
     <t>porosity</t>
   </si>
   <si>
-    <t>Porosity</t>
-  </si>
-  <si>
     <t>def/property/permeability</t>
   </si>
   <si>
@@ -537,18 +534,6 @@
     <t>Total length in decimal format of the Drill pipe in the hole.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipe Extent </t>
-  </si>
-  <si>
-    <t>Permeability is the property of rocks that is an indication of the ability for fluids (gas or liquid) to flow through rocks; The SI unit for permeability is m2. A practical unit for permeability is the darcy (d), or more commonly the millidarcy (md) (1 darcy \approx10−12m2).</t>
-  </si>
-  <si>
-    <t>permeability</t>
-  </si>
-  <si>
-    <t>the state or quality of a material or membrane that causes it to allow liquids or gases to pass through it</t>
-  </si>
-  <si>
     <t>Permeability</t>
   </si>
   <si>
@@ -774,15 +759,9 @@
     <t>The proportionality constant specifically for the flow of water through a porous media; permeability is a portion of this, and is a property of the porous media only, not the fluid. Given the value of hydraulic conductivity for a subsurface system, the permeability can be calculated.  in this case, reported as meters/sec</t>
   </si>
   <si>
-    <t>hydraulic conductivity</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
-    <t>the amount of heat transferred across an isothermal surface in a unit time</t>
-  </si>
-  <si>
     <t>Heat Flow</t>
   </si>
   <si>
@@ -858,9 +837,6 @@
     <t>Fluid Pressure</t>
   </si>
   <si>
-    <t>the rate of flow</t>
-  </si>
-  <si>
     <t>Fluid Flux</t>
   </si>
   <si>
@@ -987,9 +963,6 @@
     <t>Facility Contact</t>
   </si>
   <si>
-    <t>the area covered by something</t>
-  </si>
-  <si>
     <t>Extent</t>
   </si>
   <si>
@@ -1038,9 +1011,6 @@
     <t>Elevation</t>
   </si>
   <si>
-    <t>the time during which something continues</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -1107,9 +1077,6 @@
     <t>Coverage Domain Bound</t>
   </si>
   <si>
-    <t>an act of determining the total number of something.</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -1119,9 +1086,6 @@
     <t>def/property/spatial-reference-system</t>
   </si>
   <si>
-    <t>a coordinate-based spatial reference system definition</t>
-  </si>
-  <si>
     <t>Coordinate Reference System</t>
   </si>
   <si>
@@ -1131,9 +1095,6 @@
     <t>Coordinate Location</t>
   </si>
   <si>
-    <t>the distance from the origin along one of the axes in a coordinate reference system</t>
-  </si>
-  <si>
     <t>Coordinate</t>
   </si>
   <si>
@@ -1143,12 +1104,6 @@
     <t>Contour Identifier</t>
   </si>
   <si>
-    <t>def/property/contact-information</t>
-  </si>
-  <si>
-    <t>domain is union of valid telephone numbers, e-mail addresses and postal addresses</t>
-  </si>
-  <si>
     <t>Contact Information</t>
   </si>
   <si>
@@ -1303,13 +1258,145 @@
   </si>
   <si>
     <t>URI</t>
+  </si>
+  <si>
+    <t>Acceleration of gravity</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>the magnitude of the acceleration of gravity at some location</t>
+  </si>
+  <si>
+    <t>the state or quality of a material or membrane that causes it to allow liquids or gases to pass through it. Permeability is the property of rocks that is an indication of the ability for fluids (gas or liquid) to flow through rocks; The SI unit for permeability is m2. A practical unit for permeability is the darcy (d), or more commonly the millidarcy (md) (1 darcy \approx10−12m2).</t>
+  </si>
+  <si>
+    <t>Heat Production</t>
+  </si>
+  <si>
+    <t>rate of heat production; units like ? Calories/hr, which is a unit of power.</t>
+  </si>
+  <si>
+    <t>Heat Flux</t>
+  </si>
+  <si>
+    <t>Thermal flux</t>
+  </si>
+  <si>
+    <t>the rate of heat energy transfer through a given surface per unit time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amount of heat transferred across a unit area in a unit time, </t>
+  </si>
+  <si>
+    <t>Heat flux density</t>
+  </si>
+  <si>
+    <t>def/property/elevation</t>
+  </si>
+  <si>
+    <t>def/property/spacing</t>
+  </si>
+  <si>
+    <t>def/property/unit-of-measure</t>
+  </si>
+  <si>
+    <t>The total number of some entity instances</t>
+  </si>
+  <si>
+    <t>A coordinate-based spatial reference system definition</t>
+  </si>
+  <si>
+    <t>The distance from the origin along one of the axes in a coordinate reference system</t>
+  </si>
+  <si>
+    <t>Information that specifies an agent who should be contacted with questions or comments on a resoruce.</t>
+  </si>
+  <si>
+    <t>Hydraulic conductivity</t>
+  </si>
+  <si>
+    <t>a property of a variable that quantifies its value in some context</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>The unit monetary value assigned to some thing</t>
+  </si>
+  <si>
+    <t>Pipe Extent</t>
+  </si>
+  <si>
+    <t>Older Age</t>
+  </si>
+  <si>
+    <t>The older bound for the age of a feature.</t>
+  </si>
+  <si>
+    <t>the size of some thing</t>
+  </si>
+  <si>
+    <t>Information describing a resource</t>
+  </si>
+  <si>
+    <t>the time interval during which some thing continues</t>
+  </si>
+  <si>
+    <t>The linear distance above or below a horizontal reference surface (datum)</t>
+  </si>
+  <si>
+    <t>A horizontal reference surface from which elevations are measured</t>
+  </si>
+  <si>
+    <t>The rate of flow of a fluid per unit area, which has the dimensions [quantity]·[time]−1·[area]−1. This is general property which is actually measured as volume flux or mass flux, depending on whether the quantity is volume or mass.</t>
+  </si>
+  <si>
+    <t>Mass fluid flux</t>
+  </si>
+  <si>
+    <t>Volume fluid flux</t>
+  </si>
+  <si>
+    <t>the volume of fluid that passes through a unit area per unit time</t>
+  </si>
+  <si>
+    <t>the mass of fluid that passes through a unit area per unit time</t>
+  </si>
+  <si>
+    <t>def/property/fluid-flux</t>
+  </si>
+  <si>
+    <t>dcdtr:quantityKind</t>
+  </si>
+  <si>
+    <t>A location property specified with numeric coordinates within a coordinated based spatial reference system.</t>
+  </si>
+  <si>
+    <t>Observed Property</t>
+  </si>
+  <si>
+    <t>property of an observation that specifies the phenomenon quantified by the observation result</t>
+  </si>
+  <si>
+    <t>Observed Value</t>
+  </si>
+  <si>
+    <t>The result value of an observation</t>
+  </si>
+  <si>
+    <t>Pore Geometry Characteristics</t>
+  </si>
+  <si>
+    <t>Property that describes the bulk characterisitcs of pore geometry in a rock, related to connectivity, throat diamter, surface physics of pore lining, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1397,6 +1484,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1445,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1505,6 +1597,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1786,3018 +1885,3159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E615"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="34.109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="25.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="23" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
-        <v>class/data-type/access-link</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="A2:A67" si="0">"def/property/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
+        <v>def/property/acceleration-of-gravity</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A66" si="0">"def/property/" &amp; LOWER(SUBSTITUTE(B3, " ", "-"))</f>
+        <f t="shared" si="0"/>
+        <v>def/property/access-link</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/administrative-position-name</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/age</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/agent-identifier</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/property/agent-identifier</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="str">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/agent-name</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="str">
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/air-permeability</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
+      <c r="B8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/analytical-procedure-metadata</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
+    <row r="10" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/aquifer-productivity</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="str">
+      <c r="B10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/area</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="str">
+    <row r="12" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/auto-id</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="str">
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/borehole-casing-extent</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/borehole-casing-thickness</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="str">
+      <c r="B14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/borehole-casing-weight</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/borehole-casing-weight-uom</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/borehole-casing-weight-uom</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/borehole-collar-elevation</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="str">
+      <c r="B17" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/borehole-spacing</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="str">
+      <c r="B18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/capacity_mw</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="str">
+      <c r="B19" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/category--name</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+    <row r="21" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/cementation-factor</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="str">
+      <c r="B21" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/chemical-character</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/composition</v>
-      </c>
       <c r="B22" s="4" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/composition</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/conductivity</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="str">
+      <c r="B24" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/constituent-type</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
+    <row r="26" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/contact-information</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="str">
+      <c r="B26" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/contour-identifier</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/coordinate</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/coordinate</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/coordinate-location</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="str">
+      <c r="B29" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/coordinate-reference-system</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="str">
+      <c r="B30" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/correction</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="str">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/count</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="str">
+      <c r="B32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/coverage-domain-bound</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/curation-location</v>
-      </c>
       <c r="B33" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/customer</v>
+        <v>def/property/curation-location</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/customer</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/data-history</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/datum-type</v>
-      </c>
       <c r="B36" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/density</v>
+        <v>def/property/datum-type</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/description</v>
+        <v>def/property/density</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/designation</v>
+        <v>def/property/description</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/designation</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/displacement</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="str">
+      <c r="B41" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/documentation</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="str">
+      <c r="B42" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/drilling-method</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="str">
+      <c r="B43" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/duration</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="str">
+      <c r="B44" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/elevation</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="str">
+      <c r="B45" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/elevation-datum</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="str">
+      <c r="B46" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/e-mail-address</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="str">
+      <c r="B47" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/energy</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/eruptive-style-type</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/event-in-history</v>
+        <v>def/property/eruptive-style-type</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/event-name</v>
+        <v>def/property/event-in-history</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/event-type</v>
+        <v>def/property/event-name</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/extent</v>
+        <v>def/property/event-type</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/property/extent</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="str">
+    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/facility-contact</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="str">
+      <c r="B54" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/facility-name</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="B55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="str">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/facility-operational-date</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/facility-operator</v>
-      </c>
       <c r="B56" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/facility-status</v>
+        <v>def/property/facility-operator</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/property/fault-boundary</v>
+        <v>def/property/facility-status</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/fault-boundary</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/fault-count</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="str">
+      <c r="B60" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/fault-movement-type</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/feature-count</v>
-      </c>
       <c r="B61" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>def/property/feature-count</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>def/property/feature-description</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="str">
+      <c r="B63" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/feature-extent</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="B64" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
+    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/feature-history</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="B65" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="str">
+    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>def/property/feature-identifier</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>def/property/feature-name</v>
-      </c>
       <c r="B66" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/property/feature-name</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="str">
-        <f t="shared" ref="A67:A130" si="1">"def/property/" &amp; LOWER(SUBSTITUTE(B67, " ", "-"))</f>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="str">
+        <f t="shared" ref="A68:A138" si="1">"def/property/" &amp; LOWER(SUBSTITUTE(B68, " ", "-"))</f>
         <v>def/property/feature-of-interest</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="str">
+      <c r="B68" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/feature-shape</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
+      <c r="B69" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/feature-type</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="B70" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="str">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/fiat-geographic-area</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
+      <c r="B71" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/fiat-geographic-position</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/flow-continuity</v>
-      </c>
       <c r="B72" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/flow-direction</v>
+        <v>def/property/flow-continuity</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>def/property/flow-direction</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>def/property/flow-velocity-magnitude</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
+      <c r="B75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/fluid-flux</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/fluid-pressure</v>
-      </c>
       <c r="B76" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/fluid-quantity</v>
+        <v>def/property/mass-fluid-flux</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/fluid-temperature</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>261</v>
+        <v>def/property/volume-fluid-flux</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/functional-characterization</v>
+        <v>def/property/fluid-pressure</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>def/property/fluid-quantity</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/fluid-temperature</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/functional-characterization</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>def/property/geospatial-coordinate-extent</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="B83" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
+    <row r="84" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/geospatial-extent</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/geospatial-orientation</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/geospatial-position</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/geospatial-x-coordinate</v>
-      </c>
       <c r="B84" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>def/property/geospatial-orientation</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/geospatial-position</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/geospatial-x-coordinate</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>def/property/geospatial-y-coordinate</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
+      <c r="B88" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/geothermal-resource-type</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="B89" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="str">
+    <row r="90" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/gravity-observation-correction</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/gravity-observed-value</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/ground-elevation</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/heat-flow</v>
-      </c>
       <c r="B90" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>def/property/gravity-observed-value</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/ground-elevation</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/heat-flow</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/heat-flux</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/heat-production</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>def/property/history</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="2" t="s">
+      <c r="B96" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="str">
+    <row r="97" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/hydraulic-conductivity</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="str">
+      <c r="B97" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/hydraulic-transmissivity</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="str">
+      <c r="B98" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/hydrologic-setting</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/identifier</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/index-term</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/individual-name</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/information</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/instrument-name</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/identifier</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/index-term</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/individual-name</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="str">
+    <row r="103" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/information</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/instrument-name</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/intrinsic-permeability</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/label</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/latitude</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="E102" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/lithology-type</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/local-identifier</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/local-permeability</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/label</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/latitude</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="E107" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/lithology-type</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="str">
+      <c r="C108" s="4"/>
+      <c r="D108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/local-identifier</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/local-permeability</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/location</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/location-name</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/location-uncertainty</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/location-uncertainty-code</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/longitude</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="E110" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/market-proximity</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/location-name</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/location-uncertainty</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/mass</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    <row r="114" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/location-uncertainty-code</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/material-type</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="E114" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5" t="s">
+    </row>
+    <row r="115" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/longitude</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/measurement-count</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="C115" s="4"/>
+      <c r="E115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/market-proximity</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/metadata-reference</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/name</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/mass</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/material-type</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/measurement-count</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/notes</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="C119" s="4"/>
+      <c r="D119" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E117" s="2" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/metadata-reference</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/notional-location</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/observation-history</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/observation-identifier</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/observation-name</v>
+        <v>def/property/name</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/observation-procedure</v>
-      </c>
-      <c r="B122" s="4" t="s">
+        <v>def/property/notes</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/notional-location</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observation-history</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="5" t="s">
+      <c r="E124" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observation-identifier</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/observation-type</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="C125" s="4"/>
+      <c r="D125" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/operational-date</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="E125" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observation-name</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/operator</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="C126" s="4"/>
+      <c r="D126" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>def/property/organization-name</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>def/property/orientation</v>
+        <v>def/property/observation-procedure</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observation-type</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observed-property</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/observed-value</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/older-age</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/operational-date</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/operator</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/organization-name</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>def/property/orientation</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="str">
+    <row r="136" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/otherid</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="str">
+      <c r="B136" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/owner</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="str">
+      <c r="B137" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="str">
         <f t="shared" si="1"/>
         <v>def/property/parent-feature-identifier</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="B138" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="str">
-        <f t="shared" ref="A131:A194" si="2">"def/property/" &amp; LOWER(SUBSTITUTE(B131, " ", "-"))</f>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="str">
+        <f t="shared" ref="A139:A202" si="2">"def/property/" &amp; LOWER(SUBSTITUTE(B139, " ", "-"))</f>
         <v>def/property/periodicity</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="B139" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="str">
+    <row r="140" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/permeability</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/permeability</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/pipe-extent-</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="C140" s="4"/>
+      <c r="D140" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/pipe-extent</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="str">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/plant-name</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="str">
+      <c r="E142" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/plant-type</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="str">
+      <c r="E143" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/point-of-contact</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="str">
+      <c r="C144" s="4"/>
+      <c r="D144" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/pore-geometry-characteristics</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/pore-scale-permeability</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="str">
+      <c r="E146" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/porosity</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/porosity</v>
-      </c>
-      <c r="B140" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="str">
+    <row r="148" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/postal-address</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="str">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/power</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/power-production-capacity</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/precipitation-quantity</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/pressure</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/procedure-description</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/procedure-name</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/procedure-type</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/process-type</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="2" t="s">
+    </row>
+    <row r="150" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/power-production-capacity</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/precipitation-quantity</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/pressure</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/price</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/procedure-description</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/procedure-name</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/procedure-type</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="str">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/process-type</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/provenance</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="8" t="s">
+      <c r="C158" s="4"/>
+      <c r="D158" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="str">
+    <row r="159" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/publication-date</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="7" t="s">
+      <c r="C159" s="4"/>
+      <c r="D159" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="str">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/purpose</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="5" t="s">
+      <c r="C160" s="4"/>
+      <c r="D160" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="str">
+    <row r="161" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/quantifier</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="5" t="s">
+      <c r="C161" s="4"/>
+      <c r="D161" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="str">
+    <row r="162" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/range-number</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="E154" s="2" t="s">
+      <c r="C162" s="4"/>
+      <c r="E162" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="str">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/recharge-extent</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="5" t="s">
+      <c r="C163" s="4"/>
+      <c r="D163" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="str">
+    <row r="164" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/reference-identifier</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="str">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/related-resource</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="5"/>
-    </row>
-    <row r="158" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="str">
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/relation</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="2" t="s">
+      <c r="C166" s="4"/>
+      <c r="D166" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="str">
+    <row r="167" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/reporting-date</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/representation</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="7"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/residence-time</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resistivity</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resource-assessment</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resource-history</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resource-link</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resource-owner</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/resource-reference</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/resource-responsible-party</v>
+        <v>def/property/representation</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/resource-state</v>
+        <v>def/property/residence-time</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/resource-use-restriction</v>
+        <v>def/property/resistivity</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C170" s="4"/>
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D170" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/sample-type</v>
+        <v>def/property/resource-assessment</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/sampling-feature-identifier</v>
+        <v>def/property/resource-history</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E172" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/resource-link</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/resource-owner</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/resource-reference</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/section-number</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C173" s="4"/>
-      <c r="E173" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/section-part</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/sedimentary-rock-cement</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="5"/>
-    </row>
-    <row r="176" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/seismic-magnitude</v>
+        <v>def/property/resource-responsible-party</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C176" s="4"/>
-      <c r="D176" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D176" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/self-identifier</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+        <v>def/property/resource-state</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/shape</v>
+        <v>def/property/resource-use-restriction</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/source-citation</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>76</v>
+        <v>def/property/sample-type</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>def/property/source-identifier</v>
+        <v>def/property/sampling-feature-identifier</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/section-number</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="E181" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/section-part</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/sedimentary-rock-cement</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/seismic-magnitude</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/self-identifier</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/shape</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/source-citation</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/source-identifier</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="str">
+    <row r="189" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/spacing</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="str">
+    <row r="190" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/spatial-reference-system</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B190" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/specific-heat</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/status</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/status-date</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/substance-of-interest</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/telephone-number</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/temperature</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/temperature-gradient</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>def/property/thermal-conductivity</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/specific-heat</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/status</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/status-date</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/substance-of-interest</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/telephone-number</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/temperature</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/temperature-gradient</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>def/property/thermal-conductivity</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="str">
+    <row r="199" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/thermal-conductivity-correction</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B199" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="3" t="s">
+      <c r="C199" s="4"/>
+      <c r="D199" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="str">
+    <row r="200" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/thermal-diffusivity</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B200" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="3" t="s">
+      <c r="C200" s="4"/>
+      <c r="D200" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="str">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/thickness</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="str">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="str">
         <f t="shared" si="2"/>
         <v>def/property/time-position</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B202" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="5" t="s">
+      <c r="C202" s="4"/>
+      <c r="D202" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="str">
-        <f t="shared" ref="A195:A258" si="3">"def/property/" &amp; LOWER(SUBSTITUTE(B195, " ", "-"))</f>
+    <row r="203" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="str">
+        <f t="shared" ref="A203:A226" si="3">"def/property/" &amp; LOWER(SUBSTITUTE(B203, " ", "-"))</f>
         <v>def/property/township-number</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B203" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="E195" s="2" t="s">
+      <c r="C203" s="4"/>
+      <c r="E203" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="str">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/uncertainty</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="str">
+      <c r="C204" s="4"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/unit-of-measure</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B205" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="5" t="s">
+      <c r="C205" s="4"/>
+      <c r="D205" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="str">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/update-time-stamp</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B206" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="str">
+    <row r="207" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/us-cadastral-location</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="str">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/usage</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B208" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="2" t="s">
+      <c r="C208" s="4"/>
+      <c r="D208" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="str">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/use-application</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B209" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="str">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/utilization</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B210" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="5" t="s">
+      <c r="C210" s="4"/>
+      <c r="D210" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="str">
+    <row r="211" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/utm-easting</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B211" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="E203" s="2" t="s">
+      <c r="C211" s="4"/>
+      <c r="E211" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="str">
+    <row r="212" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/utm-northing</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="E204" s="2" t="s">
+      <c r="C212" s="4"/>
+      <c r="E212" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="str">
+    <row r="213" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/value</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="str">
+      <c r="C213" s="4"/>
+      <c r="D213" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/variable-type</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B214" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="5" t="s">
+      <c r="C214" s="4"/>
+      <c r="D214" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="str">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/velocity-magnitude</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B215" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="str">
+      <c r="C215" s="4"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/vertical-datum</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B216" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="2" t="s">
+      <c r="C216" s="4"/>
+      <c r="D216" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="str">
+    <row r="217" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/vertical-extent</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B217" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="5" t="s">
+      <c r="C217" s="4"/>
+      <c r="D217" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="str">
+    <row r="218" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/vertical-position</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="5" t="s">
+      <c r="C218" s="4"/>
+      <c r="D218" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="str">
+    <row r="219" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/viscosity</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B219" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="3" t="s">
+      <c r="C219" s="4"/>
+      <c r="D219" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="str">
+    <row r="220" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/voice-telephone</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="str">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/volume</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="2" t="s">
+      <c r="C221" s="4"/>
+      <c r="D221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="str">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/weight</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="str">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/x-coordinate</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="str">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/y-coordinate</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="str">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/younger-age</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B225" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="3" t="s">
+      <c r="C225" s="4"/>
+      <c r="D225" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="str">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="str">
         <f t="shared" si="3"/>
         <v>def/property/zip-code</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B1:B623"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
